--- a/data/Greece/processed-db-greece.xlsx
+++ b/data/Greece/processed-db-greece.xlsx
@@ -11,161 +11,6 @@
   <definedNames/>
   <calcPr calcId="150001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
-  <si>
-    <t>Energía (Kcal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Proteína (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total de lípidos (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SFA (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MUFA (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PUFA (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carbohidratos (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fibra dietética (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Agua (g)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sodio (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Potasio (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Calcio (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magnesio (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fósforo (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hierro (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zinc (mg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cobre (mg)</t>
-  </si>
-  <si>
-    <t>Food name Spanish</t>
-  </si>
-  <si>
-    <t>Food name English</t>
-  </si>
-  <si>
-    <t>Energy (kcal)</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Total lipids/fat</t>
-  </si>
-  <si>
-    <t>Saturated fatty acids</t>
-  </si>
-  <si>
-    <t>Monounsaturated fatty acids</t>
-  </si>
-  <si>
-    <t>Polyunsaturated fatty acids</t>
-  </si>
-  <si>
-    <t>Carbohydrates</t>
-  </si>
-  <si>
-    <t>Dietary fibre</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>kcal</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>Almendras, cocidas, peladas.</t>
-  </si>
-  <si>
-    <t>Almonds, boiled, peeled</t>
-  </si>
-  <si>
-    <t>Berenjena, Cruda</t>
-  </si>
-  <si>
-    <t>Aubergine, raw</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>Sopa de fríjoles</t>
-  </si>
-  <si>
-    <t>Bean soup</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +340,7 @@
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="43.5"/>
     <col customWidth="1" max="2" min="2" style="3" width="26.6640625"/>
@@ -519,186 +364,302 @@
     <col customWidth="1" max="16384" min="20" style="3" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="22" r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
+    <row r="1">
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Energía (Kcal)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proteína (g)</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Total de lípidos (g)</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFA (g)</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUFA (g)</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PUFA (g)</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carbohidratos (g)</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fibra dietética (g)</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agua (g)</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sodio (mg)</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Potasio (mg)</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calcio (mg)</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Magnesio (mg)</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fósforo (mg)</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hierro (mg)</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zinc (mg)</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cobre (mg)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="22" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Food name Spanish</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Food name English</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Energy (kcal)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Total lipids/fat</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Saturated fatty acids</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Monounsaturated fatty acids</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Polyunsaturated fatty acids</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Carbohydrates</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Dietary fibre</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Sodium</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Potassium</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Calcium</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Magnesium</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>Phosphorus</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Iron</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Zinc</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kcal</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Almendras, cocidas, peladas.</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Almonds, boiled, peeled</t>
+        </is>
       </c>
       <c r="C4" s="1" t="n">
         <v>55</v>
@@ -752,12 +713,16 @@
         <v>4.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Berenjena, Cruda</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Aubergine, raw</t>
+        </is>
       </c>
       <c r="C5" s="1" t="n">
         <v>22</v>
@@ -798,8 +763,10 @@
       <c r="O5" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>45</v>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
       </c>
       <c r="Q5" s="1" t="n">
         <v>23.28</v>
@@ -811,12 +778,16 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Sopa de fríjoles</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Bean soup</t>
+        </is>
       </c>
       <c r="C6" s="1" t="n">
         <v>1443</v>
@@ -833,8 +804,10 @@
       <c r="G6" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
       </c>
       <c r="I6" s="1" t="n">
         <v>8</v>
@@ -863,14 +836,16 @@
       <c r="Q6" s="1" t="n">
         <v>1.22</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>49</v>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
       </c>
       <c r="S6" s="1" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7">
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
@@ -890,7 +865,7 @@
       <c r="R7" s="1" t="n"/>
       <c r="S7" s="1" t="n"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8">
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n"/>
@@ -910,7 +885,7 @@
       <c r="R8" s="1" t="n"/>
       <c r="S8" s="1" t="n"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9">
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
@@ -930,7 +905,7 @@
       <c r="R9" s="1" t="n"/>
       <c r="S9" s="1" t="n"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10">
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
@@ -950,7 +925,7 @@
       <c r="R10" s="1" t="n"/>
       <c r="S10" s="1" t="n"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11">
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
@@ -970,7 +945,7 @@
       <c r="R11" s="1" t="n"/>
       <c r="S11" s="1" t="n"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12">
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
@@ -990,7 +965,7 @@
       <c r="R12" s="1" t="n"/>
       <c r="S12" s="1" t="n"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13">
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n"/>
@@ -1010,7 +985,7 @@
       <c r="R13" s="1" t="n"/>
       <c r="S13" s="1" t="n"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14">
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n"/>
@@ -1030,7 +1005,7 @@
       <c r="R14" s="1" t="n"/>
       <c r="S14" s="1" t="n"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15">
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
@@ -1050,7 +1025,7 @@
       <c r="R15" s="1" t="n"/>
       <c r="S15" s="1" t="n"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16">
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
@@ -1070,7 +1045,7 @@
       <c r="R16" s="1" t="n"/>
       <c r="S16" s="1" t="n"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17">
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
@@ -1090,7 +1065,7 @@
       <c r="R17" s="1" t="n"/>
       <c r="S17" s="1" t="n"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18">
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="n"/>
@@ -1110,7 +1085,7 @@
       <c r="R18" s="1" t="n"/>
       <c r="S18" s="1" t="n"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19">
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="n"/>
@@ -1130,7 +1105,7 @@
       <c r="R19" s="1" t="n"/>
       <c r="S19" s="1" t="n"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20">
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="n"/>
@@ -1150,7 +1125,7 @@
       <c r="R20" s="1" t="n"/>
       <c r="S20" s="1" t="n"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21">
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="n"/>
@@ -1170,7 +1145,7 @@
       <c r="R21" s="1" t="n"/>
       <c r="S21" s="1" t="n"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22">
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
@@ -1190,7 +1165,7 @@
       <c r="R22" s="1" t="n"/>
       <c r="S22" s="1" t="n"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23">
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="n"/>
@@ -1210,7 +1185,7 @@
       <c r="R23" s="1" t="n"/>
       <c r="S23" s="1" t="n"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24">
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="n"/>
@@ -1230,7 +1205,7 @@
       <c r="R24" s="1" t="n"/>
       <c r="S24" s="1" t="n"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25">
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n"/>
@@ -1250,7 +1225,7 @@
       <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="n"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26">
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
@@ -1270,7 +1245,7 @@
       <c r="R26" s="1" t="n"/>
       <c r="S26" s="1" t="n"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27">
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n"/>
@@ -1290,7 +1265,7 @@
       <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="n"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28">
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
@@ -1310,7 +1285,7 @@
       <c r="R28" s="1" t="n"/>
       <c r="S28" s="1" t="n"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29">
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
@@ -1330,7 +1305,7 @@
       <c r="R29" s="1" t="n"/>
       <c r="S29" s="1" t="n"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30">
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
@@ -1350,7 +1325,7 @@
       <c r="R30" s="1" t="n"/>
       <c r="S30" s="1" t="n"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31">
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
@@ -1370,7 +1345,7 @@
       <c r="R31" s="1" t="n"/>
       <c r="S31" s="1" t="n"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32">
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="n"/>
@@ -1390,7 +1365,7 @@
       <c r="R32" s="1" t="n"/>
       <c r="S32" s="1" t="n"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33">
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="n"/>
@@ -1410,7 +1385,7 @@
       <c r="R33" s="1" t="n"/>
       <c r="S33" s="1" t="n"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34">
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n"/>
@@ -1430,7 +1405,7 @@
       <c r="R34" s="1" t="n"/>
       <c r="S34" s="1" t="n"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35">
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="n"/>
@@ -1450,7 +1425,7 @@
       <c r="R35" s="1" t="n"/>
       <c r="S35" s="1" t="n"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36">
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n"/>
@@ -1470,7 +1445,7 @@
       <c r="R36" s="1" t="n"/>
       <c r="S36" s="1" t="n"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37">
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n"/>
@@ -1490,7 +1465,7 @@
       <c r="R37" s="1" t="n"/>
       <c r="S37" s="1" t="n"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38">
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="n"/>
@@ -1510,7 +1485,7 @@
       <c r="R38" s="1" t="n"/>
       <c r="S38" s="1" t="n"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39">
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
@@ -1530,7 +1505,7 @@
       <c r="R39" s="1" t="n"/>
       <c r="S39" s="1" t="n"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40">
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="n"/>
@@ -1550,7 +1525,7 @@
       <c r="R40" s="1" t="n"/>
       <c r="S40" s="1" t="n"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41">
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="n"/>
@@ -1570,7 +1545,7 @@
       <c r="R41" s="1" t="n"/>
       <c r="S41" s="1" t="n"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42">
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="n"/>
@@ -1590,7 +1565,7 @@
       <c r="R42" s="1" t="n"/>
       <c r="S42" s="1" t="n"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43">
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="n"/>
@@ -1610,7 +1585,7 @@
       <c r="R43" s="1" t="n"/>
       <c r="S43" s="1" t="n"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44">
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="n"/>
@@ -1630,7 +1605,7 @@
       <c r="R44" s="1" t="n"/>
       <c r="S44" s="1" t="n"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45">
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n"/>
@@ -1650,7 +1625,7 @@
       <c r="R45" s="1" t="n"/>
       <c r="S45" s="1" t="n"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46">
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="n"/>
@@ -1670,7 +1645,7 @@
       <c r="R46" s="1" t="n"/>
       <c r="S46" s="1" t="n"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47">
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="n"/>
@@ -1690,7 +1665,7 @@
       <c r="R47" s="1" t="n"/>
       <c r="S47" s="1" t="n"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48">
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="n"/>
@@ -1710,7 +1685,7 @@
       <c r="R48" s="1" t="n"/>
       <c r="S48" s="1" t="n"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49">
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="n"/>
@@ -1730,7 +1705,7 @@
       <c r="R49" s="1" t="n"/>
       <c r="S49" s="1" t="n"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50">
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="1" t="n"/>
@@ -1750,7 +1725,7 @@
       <c r="R50" s="1" t="n"/>
       <c r="S50" s="1" t="n"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51">
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="n"/>
@@ -1770,7 +1745,7 @@
       <c r="R51" s="1" t="n"/>
       <c r="S51" s="1" t="n"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52">
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
@@ -1790,7 +1765,7 @@
       <c r="R52" s="1" t="n"/>
       <c r="S52" s="1" t="n"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53">
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
@@ -1810,7 +1785,7 @@
       <c r="R53" s="1" t="n"/>
       <c r="S53" s="1" t="n"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54">
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
@@ -1830,7 +1805,7 @@
       <c r="R54" s="1" t="n"/>
       <c r="S54" s="1" t="n"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55">
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="n"/>
@@ -1850,7 +1825,7 @@
       <c r="R55" s="1" t="n"/>
       <c r="S55" s="1" t="n"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56">
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="n"/>
@@ -1870,7 +1845,7 @@
       <c r="R56" s="1" t="n"/>
       <c r="S56" s="1" t="n"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57">
       <c r="B57" s="1" t="n"/>
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="n"/>
@@ -1890,7 +1865,7 @@
       <c r="R57" s="1" t="n"/>
       <c r="S57" s="1" t="n"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58">
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="n"/>
@@ -1910,7 +1885,7 @@
       <c r="R58" s="1" t="n"/>
       <c r="S58" s="1" t="n"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59">
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="n"/>
@@ -1930,7 +1905,7 @@
       <c r="R59" s="1" t="n"/>
       <c r="S59" s="1" t="n"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60">
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="n"/>
@@ -1950,7 +1925,7 @@
       <c r="R60" s="1" t="n"/>
       <c r="S60" s="1" t="n"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61">
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="n"/>
@@ -1970,7 +1945,7 @@
       <c r="R61" s="1" t="n"/>
       <c r="S61" s="1" t="n"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62">
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="1" t="n"/>
@@ -1990,7 +1965,7 @@
       <c r="R62" s="1" t="n"/>
       <c r="S62" s="1" t="n"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63">
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="n"/>
@@ -2010,7 +1985,7 @@
       <c r="R63" s="1" t="n"/>
       <c r="S63" s="1" t="n"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64">
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="n"/>
@@ -2030,7 +2005,7 @@
       <c r="R64" s="1" t="n"/>
       <c r="S64" s="1" t="n"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65">
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="n"/>
@@ -2050,7 +2025,7 @@
       <c r="R65" s="1" t="n"/>
       <c r="S65" s="1" t="n"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66">
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="n"/>
@@ -2070,7 +2045,7 @@
       <c r="R66" s="1" t="n"/>
       <c r="S66" s="1" t="n"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67">
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="1" t="n"/>
@@ -2090,7 +2065,7 @@
       <c r="R67" s="1" t="n"/>
       <c r="S67" s="1" t="n"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68">
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="n"/>
       <c r="D68" s="1" t="n"/>
@@ -2110,7 +2085,7 @@
       <c r="R68" s="1" t="n"/>
       <c r="S68" s="1" t="n"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69">
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="n"/>
@@ -2130,7 +2105,7 @@
       <c r="R69" s="1" t="n"/>
       <c r="S69" s="1" t="n"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70">
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="1" t="n"/>
@@ -2150,7 +2125,7 @@
       <c r="R70" s="1" t="n"/>
       <c r="S70" s="1" t="n"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71">
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="n"/>
       <c r="D71" s="1" t="n"/>
@@ -2170,7 +2145,7 @@
       <c r="R71" s="1" t="n"/>
       <c r="S71" s="1" t="n"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72">
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="n"/>
@@ -2190,7 +2165,7 @@
       <c r="R72" s="1" t="n"/>
       <c r="S72" s="1" t="n"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73">
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="n"/>
@@ -2210,7 +2185,7 @@
       <c r="R73" s="1" t="n"/>
       <c r="S73" s="1" t="n"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74">
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
@@ -2230,7 +2205,7 @@
       <c r="R74" s="1" t="n"/>
       <c r="S74" s="1" t="n"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75">
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="n"/>
       <c r="D75" s="1" t="n"/>
@@ -2250,7 +2225,7 @@
       <c r="R75" s="1" t="n"/>
       <c r="S75" s="1" t="n"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76">
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="n"/>
@@ -2270,7 +2245,7 @@
       <c r="R76" s="1" t="n"/>
       <c r="S76" s="1" t="n"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77">
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
       <c r="D77" s="1" t="n"/>
@@ -2290,7 +2265,7 @@
       <c r="R77" s="1" t="n"/>
       <c r="S77" s="1" t="n"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78">
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="n"/>
       <c r="D78" s="1" t="n"/>
@@ -2310,7 +2285,7 @@
       <c r="R78" s="1" t="n"/>
       <c r="S78" s="1" t="n"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79">
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="n"/>
       <c r="D79" s="1" t="n"/>
@@ -2330,7 +2305,7 @@
       <c r="R79" s="1" t="n"/>
       <c r="S79" s="1" t="n"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80">
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="n"/>
       <c r="D80" s="1" t="n"/>
@@ -2350,7 +2325,7 @@
       <c r="R80" s="1" t="n"/>
       <c r="S80" s="1" t="n"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81">
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="n"/>
       <c r="D81" s="1" t="n"/>
@@ -2370,7 +2345,7 @@
       <c r="R81" s="1" t="n"/>
       <c r="S81" s="1" t="n"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82">
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="n"/>
@@ -2390,7 +2365,7 @@
       <c r="R82" s="1" t="n"/>
       <c r="S82" s="1" t="n"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83">
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="n"/>
       <c r="D83" s="1" t="n"/>
@@ -2410,7 +2385,7 @@
       <c r="R83" s="1" t="n"/>
       <c r="S83" s="1" t="n"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84">
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="n"/>
       <c r="D84" s="1" t="n"/>
@@ -2430,7 +2405,7 @@
       <c r="R84" s="1" t="n"/>
       <c r="S84" s="1" t="n"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85">
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="n"/>
       <c r="D85" s="1" t="n"/>
@@ -2450,7 +2425,7 @@
       <c r="R85" s="1" t="n"/>
       <c r="S85" s="1" t="n"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86">
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="n"/>
       <c r="D86" s="1" t="n"/>
@@ -2470,7 +2445,7 @@
       <c r="R86" s="1" t="n"/>
       <c r="S86" s="1" t="n"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87">
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="n"/>
       <c r="D87" s="1" t="n"/>
@@ -2490,7 +2465,7 @@
       <c r="R87" s="1" t="n"/>
       <c r="S87" s="1" t="n"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88">
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="n"/>
       <c r="D88" s="1" t="n"/>
@@ -2510,7 +2485,7 @@
       <c r="R88" s="1" t="n"/>
       <c r="S88" s="1" t="n"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89">
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="n"/>
       <c r="D89" s="1" t="n"/>

--- a/data/Greece/processed-db-greece.xlsx
+++ b/data/Greece/processed-db-greece.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9440" windowWidth="24000" xWindow="8300" yWindow="580"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8300" yWindow="580" windowWidth="24000" windowHeight="9440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="150001" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -48,22 +48,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -342,26 +410,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="43.5"/>
-    <col customWidth="1" max="2" min="2" style="3" width="26.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="10.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="3" width="8.1640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="3" width="11.1640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="6.5"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="7.33203125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="11.33203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="3" width="9.6640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="9.5"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="3" width="8"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="3" width="9.83203125"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="3" width="8.6640625"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="3" width="9.33203125"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="3" width="7.1640625"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="3" width="7.5"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="3" width="9.5"/>
-    <col customWidth="1" max="16384" min="20" style="3" width="10.83203125"/>
+    <col width="43.5" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="10.5" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.1640625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="6.5" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="7.5" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
+    <col width="7.5" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="8" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
+    <col width="9.83203125" bestFit="1" customWidth="1" style="3" min="14" max="14"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="3" min="15" max="15"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="3" min="16" max="16"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" style="3" min="17" max="17"/>
+    <col width="7.5" bestFit="1" customWidth="1" style="3" min="18" max="18"/>
+    <col width="9.5" bestFit="1" customWidth="1" style="3" min="19" max="19"/>
+    <col width="10.83203125" customWidth="1" style="3" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,7 +519,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="22" r="2">
+    <row r="2" ht="22" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>Food name Spanish</t>
@@ -2506,7 +2574,7 @@
       <c r="S89" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>